--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tslp-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tslp-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tslp</t>
+  </si>
+  <si>
+    <t>Il7r</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tslp</t>
-  </si>
-  <si>
-    <t>Il7r</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H2">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I2">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J2">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>27.63663966666667</v>
+        <v>1.142536666666667</v>
       </c>
       <c r="N2">
-        <v>82.909919</v>
+        <v>3.42761</v>
       </c>
       <c r="O2">
-        <v>0.4201409441224363</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="P2">
-        <v>0.4201409441224363</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="Q2">
-        <v>22.47983616134433</v>
+        <v>1.115815780797778</v>
       </c>
       <c r="R2">
-        <v>202.318525452099</v>
+        <v>10.04234202718</v>
       </c>
       <c r="S2">
-        <v>0.1039858939253497</v>
+        <v>0.004890973985736909</v>
       </c>
       <c r="T2">
-        <v>0.1039858939253496</v>
+        <v>0.004890973985736909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,14 +587,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>3</v>
       </c>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H3">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I3">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J3">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.909265</v>
+        <v>36.03948033333334</v>
       </c>
       <c r="N3">
-        <v>29.727795</v>
+        <v>108.118441</v>
       </c>
       <c r="O3">
-        <v>0.1506437831398465</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="P3">
-        <v>0.1506437831398465</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="Q3">
-        <v>8.060265515854999</v>
+        <v>35.19661299361756</v>
       </c>
       <c r="R3">
-        <v>72.542389642695</v>
+        <v>316.769516942558</v>
       </c>
       <c r="S3">
-        <v>0.03728469855946355</v>
+        <v>0.1542779027688188</v>
       </c>
       <c r="T3">
-        <v>0.03728469855946354</v>
+        <v>0.1542779027688188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H4">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I4">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J4">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,42 +682,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.23354400000001</v>
+        <v>9.050955999999999</v>
       </c>
       <c r="N4">
-        <v>84.70063200000001</v>
+        <v>27.152868</v>
       </c>
       <c r="O4">
-        <v>0.4292152727377173</v>
+        <v>0.07748414025801917</v>
       </c>
       <c r="P4">
-        <v>0.4292152727377173</v>
+        <v>0.07748414025801918</v>
       </c>
       <c r="Q4">
-        <v>22.965362324408</v>
+        <v>8.839278275042666</v>
       </c>
       <c r="R4">
-        <v>206.688260919672</v>
+        <v>79.553504475384</v>
       </c>
       <c r="S4">
-        <v>0.1062318120774196</v>
+        <v>0.03874535639298175</v>
       </c>
       <c r="T4">
-        <v>0.1062318120774195</v>
+        <v>0.03874535639298175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8876559999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H5">
-        <v>2.662968</v>
+        <v>2.929838</v>
       </c>
       <c r="I5">
-        <v>0.2700947919357631</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J5">
-        <v>0.2700947919357631</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.63663966666667</v>
+        <v>70.57746033333335</v>
       </c>
       <c r="N5">
-        <v>82.909919</v>
+        <v>211.732381</v>
       </c>
       <c r="O5">
-        <v>0.4201409441224363</v>
+        <v>0.6042051066785415</v>
       </c>
       <c r="P5">
-        <v>0.4201409441224363</v>
+        <v>0.6042051066785417</v>
       </c>
       <c r="Q5">
-        <v>24.53182901995466</v>
+        <v>68.92684174269758</v>
       </c>
       <c r="R5">
-        <v>220.786461179592</v>
+        <v>620.3415756842782</v>
       </c>
       <c r="S5">
-        <v>0.1134778808864445</v>
+        <v>0.3021281789378418</v>
       </c>
       <c r="T5">
-        <v>0.1134778808864445</v>
+        <v>0.3021281789378419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H6">
         <v>2.662968</v>
       </c>
       <c r="I6">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J6">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.909265</v>
+        <v>1.142536666666667</v>
       </c>
       <c r="N6">
-        <v>29.727795</v>
+        <v>3.42761</v>
       </c>
       <c r="O6">
-        <v>0.1506437831398465</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="P6">
-        <v>0.1506437831398465</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="Q6">
-        <v>8.796018532839998</v>
+        <v>1.014179527386667</v>
       </c>
       <c r="R6">
-        <v>79.16416679555999</v>
+        <v>9.12761574648</v>
       </c>
       <c r="S6">
-        <v>0.04068810126357307</v>
+        <v>0.004445470095223642</v>
       </c>
       <c r="T6">
-        <v>0.04068810126357306</v>
+        <v>0.004445470095223641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H7">
         <v>2.662968</v>
       </c>
       <c r="I7">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J7">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,60 +868,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.23354400000001</v>
+        <v>36.03948033333334</v>
       </c>
       <c r="N7">
-        <v>84.70063200000001</v>
+        <v>108.118441</v>
       </c>
       <c r="O7">
-        <v>0.4292152727377173</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="P7">
-        <v>0.4292152727377173</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="Q7">
-        <v>25.061674732864</v>
+        <v>31.99066095476534</v>
       </c>
       <c r="R7">
-        <v>225.555072595776</v>
+        <v>287.915948592888</v>
       </c>
       <c r="S7">
-        <v>0.1159288097857456</v>
+        <v>0.1402251995436184</v>
       </c>
       <c r="T7">
-        <v>0.1159288097857455</v>
+        <v>0.1402251995436184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1959093333333334</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H8">
-        <v>0.587728</v>
+        <v>2.662968</v>
       </c>
       <c r="I8">
-        <v>0.05961103245507352</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J8">
-        <v>0.0596110324550735</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,60 +930,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.63663966666667</v>
+        <v>9.050955999999999</v>
       </c>
       <c r="N8">
-        <v>82.909919</v>
+        <v>27.152868</v>
       </c>
       <c r="O8">
-        <v>0.4201409441224363</v>
+        <v>0.07748414025801917</v>
       </c>
       <c r="P8">
-        <v>0.4201409441224363</v>
+        <v>0.07748414025801918</v>
       </c>
       <c r="Q8">
-        <v>5.414275652670223</v>
+        <v>8.034135399136</v>
       </c>
       <c r="R8">
-        <v>48.728480874032</v>
+        <v>72.307218592224</v>
       </c>
       <c r="S8">
-        <v>0.02504503545578778</v>
+        <v>0.03521616015052908</v>
       </c>
       <c r="T8">
-        <v>0.02504503545578777</v>
+        <v>0.03521616015052908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1959093333333334</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H9">
-        <v>0.587728</v>
+        <v>2.662968</v>
       </c>
       <c r="I9">
-        <v>0.05961103245507352</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J9">
-        <v>0.0596110324550735</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.909265</v>
+        <v>70.57746033333335</v>
       </c>
       <c r="N9">
-        <v>29.727795</v>
+        <v>211.732381</v>
       </c>
       <c r="O9">
-        <v>0.1506437831398465</v>
+        <v>0.6042051066785415</v>
       </c>
       <c r="P9">
-        <v>0.1506437831398465</v>
+        <v>0.6042051066785417</v>
       </c>
       <c r="Q9">
-        <v>1.941317499973333</v>
+        <v>62.64850612964536</v>
       </c>
       <c r="R9">
-        <v>17.47185749976</v>
+        <v>563.8365551668081</v>
       </c>
       <c r="S9">
-        <v>0.008980031445904448</v>
+        <v>0.2746082453738898</v>
       </c>
       <c r="T9">
-        <v>0.008980031445904445</v>
+        <v>0.2746082453738899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,78 +1036,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1959093333333334</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H10">
-        <v>0.587728</v>
+        <v>0.104171</v>
       </c>
       <c r="I10">
-        <v>0.05961103245507352</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J10">
-        <v>0.0596110324550735</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>28.23354400000001</v>
+        <v>1.142536666666667</v>
       </c>
       <c r="N10">
-        <v>84.70063200000001</v>
+        <v>3.42761</v>
       </c>
       <c r="O10">
-        <v>0.4292152727377173</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="P10">
-        <v>0.4292152727377173</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="Q10">
-        <v>5.531214782677335</v>
+        <v>0.03967306236777778</v>
       </c>
       <c r="R10">
-        <v>49.78093304409601</v>
+        <v>0.3570575613099999</v>
       </c>
       <c r="S10">
-        <v>0.0255859655533813</v>
+        <v>0.0001738995982263182</v>
       </c>
       <c r="T10">
-        <v>0.02558596555338129</v>
+        <v>0.0001738995982263181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.899417</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H11">
-        <v>2.698251</v>
+        <v>0.104171</v>
       </c>
       <c r="I11">
-        <v>0.2736734134377375</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J11">
-        <v>0.2736734134377374</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,60 +1116,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.63663966666667</v>
+        <v>36.03948033333334</v>
       </c>
       <c r="N11">
-        <v>82.909919</v>
+        <v>108.118441</v>
       </c>
       <c r="O11">
-        <v>0.4201409441224363</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="P11">
-        <v>0.4201409441224363</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="Q11">
-        <v>24.85686353907434</v>
+        <v>1.251422901934556</v>
       </c>
       <c r="R11">
-        <v>223.711771851669</v>
+        <v>11.262806117411</v>
       </c>
       <c r="S11">
-        <v>0.1149814063029409</v>
+        <v>0.005485382949272493</v>
       </c>
       <c r="T11">
-        <v>0.1149814063029408</v>
+        <v>0.005485382949272492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.899417</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H12">
-        <v>2.698251</v>
+        <v>0.104171</v>
       </c>
       <c r="I12">
-        <v>0.2736734134377375</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J12">
-        <v>0.2736734134377374</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,60 +1178,60 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.909265</v>
+        <v>9.050955999999999</v>
       </c>
       <c r="N12">
-        <v>29.727795</v>
+        <v>27.152868</v>
       </c>
       <c r="O12">
-        <v>0.1506437831398465</v>
+        <v>0.07748414025801917</v>
       </c>
       <c r="P12">
-        <v>0.1506437831398465</v>
+        <v>0.07748414025801918</v>
       </c>
       <c r="Q12">
-        <v>8.912561398505</v>
+        <v>0.3142823791586666</v>
       </c>
       <c r="R12">
-        <v>80.213052586545</v>
+        <v>2.828541412428</v>
       </c>
       <c r="S12">
-        <v>0.04122719834505609</v>
+        <v>0.001377599212247674</v>
       </c>
       <c r="T12">
-        <v>0.04122719834505607</v>
+        <v>0.001377599212247674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.899417</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H13">
-        <v>2.698251</v>
+        <v>0.104171</v>
       </c>
       <c r="I13">
-        <v>0.2736734134377375</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J13">
-        <v>0.2736734134377374</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,122 +1240,122 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.23354400000001</v>
+        <v>70.57746033333335</v>
       </c>
       <c r="N13">
-        <v>84.70063200000001</v>
+        <v>211.732381</v>
       </c>
       <c r="O13">
-        <v>0.4292152727377173</v>
+        <v>0.6042051066785415</v>
       </c>
       <c r="P13">
-        <v>0.4292152727377173</v>
+        <v>0.6042051066785417</v>
       </c>
       <c r="Q13">
-        <v>25.39372944384801</v>
+        <v>2.450708206794556</v>
       </c>
       <c r="R13">
-        <v>228.543564994632</v>
+        <v>22.056373861151</v>
       </c>
       <c r="S13">
-        <v>0.1174648087897406</v>
+        <v>0.01074223029673788</v>
       </c>
       <c r="T13">
-        <v>0.1174648087897405</v>
+        <v>0.01074223029673788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05406733333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.162202</v>
+      </c>
+      <c r="I14">
+        <v>0.02768340069487551</v>
+      </c>
+      <c r="J14">
+        <v>0.02768340069487551</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.05570733333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.167122</v>
-      </c>
-      <c r="I14">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="J14">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>27.63663966666667</v>
+        <v>1.142536666666667</v>
       </c>
       <c r="N14">
-        <v>82.909919</v>
+        <v>3.42761</v>
       </c>
       <c r="O14">
-        <v>0.4201409441224363</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="P14">
-        <v>0.4201409441224363</v>
+        <v>0.009781118296225249</v>
       </c>
       <c r="Q14">
-        <v>1.539563498124222</v>
+        <v>0.06177391080222222</v>
       </c>
       <c r="R14">
-        <v>13.856071483118</v>
+        <v>0.5559651972199999</v>
       </c>
       <c r="S14">
-        <v>0.007121621592713236</v>
+        <v>0.0002707746170383816</v>
       </c>
       <c r="T14">
-        <v>0.007121621592713235</v>
+        <v>0.0002707746170383816</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.05570733333333333</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H15">
-        <v>0.167122</v>
+        <v>0.162202</v>
       </c>
       <c r="I15">
-        <v>0.0169505535995508</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J15">
-        <v>0.0169505535995508</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,60 +1364,60 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.909265</v>
+        <v>36.03948033333334</v>
       </c>
       <c r="N15">
-        <v>29.727795</v>
+        <v>108.118441</v>
       </c>
       <c r="O15">
-        <v>0.1506437831398465</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="P15">
-        <v>0.1506437831398465</v>
+        <v>0.308529634767214</v>
       </c>
       <c r="Q15">
-        <v>0.5520187284433333</v>
+        <v>1.948558596342445</v>
       </c>
       <c r="R15">
-        <v>4.96816855599</v>
+        <v>17.537027367082</v>
       </c>
       <c r="S15">
-        <v>0.002553495520551076</v>
+        <v>0.008541149505504381</v>
       </c>
       <c r="T15">
-        <v>0.002553495520551076</v>
+        <v>0.008541149505504381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.05570733333333333</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H16">
-        <v>0.167122</v>
+        <v>0.162202</v>
       </c>
       <c r="I16">
-        <v>0.0169505535995508</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J16">
-        <v>0.0169505535995508</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,60 +1426,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.23354400000001</v>
+        <v>9.050955999999999</v>
       </c>
       <c r="N16">
-        <v>84.70063200000001</v>
+        <v>27.152868</v>
       </c>
       <c r="O16">
-        <v>0.4292152727377173</v>
+        <v>0.07748414025801917</v>
       </c>
       <c r="P16">
-        <v>0.4292152727377173</v>
+        <v>0.07748414025801918</v>
       </c>
       <c r="Q16">
-        <v>1.572815446789334</v>
+        <v>0.4893610550373333</v>
       </c>
       <c r="R16">
-        <v>14.155339021104</v>
+        <v>4.404249495336</v>
       </c>
       <c r="S16">
-        <v>0.007275436486286493</v>
+        <v>0.002145024502260679</v>
       </c>
       <c r="T16">
-        <v>0.007275436486286493</v>
+        <v>0.00214502450226068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4343643333333334</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H17">
-        <v>1.303093</v>
+        <v>0.162202</v>
       </c>
       <c r="I17">
-        <v>0.1321678040096424</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J17">
-        <v>0.1321678040096424</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,152 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.63663966666667</v>
+        <v>70.57746033333335</v>
       </c>
       <c r="N17">
-        <v>82.909919</v>
+        <v>211.732381</v>
       </c>
       <c r="O17">
-        <v>0.4201409441224363</v>
+        <v>0.6042051066785415</v>
       </c>
       <c r="P17">
-        <v>0.4201409441224363</v>
+        <v>0.6042051066785417</v>
       </c>
       <c r="Q17">
-        <v>12.00437056438522</v>
+        <v>3.815935073662446</v>
       </c>
       <c r="R17">
-        <v>108.039335079467</v>
+        <v>34.34341566296201</v>
       </c>
       <c r="S17">
-        <v>0.05552910595920028</v>
+        <v>0.01672645207007207</v>
       </c>
       <c r="T17">
-        <v>0.05552910595920027</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H18">
-        <v>1.303093</v>
-      </c>
-      <c r="I18">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J18">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>9.909265</v>
-      </c>
-      <c r="N18">
-        <v>29.727795</v>
-      </c>
-      <c r="O18">
-        <v>0.1506437831398465</v>
-      </c>
-      <c r="P18">
-        <v>0.1506437831398465</v>
-      </c>
-      <c r="Q18">
-        <v>4.304231285548333</v>
-      </c>
-      <c r="R18">
-        <v>38.73808156993501</v>
-      </c>
-      <c r="S18">
-        <v>0.01991025800529831</v>
-      </c>
-      <c r="T18">
-        <v>0.0199102580052983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H19">
-        <v>1.303093</v>
-      </c>
-      <c r="I19">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J19">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>28.23354400000001</v>
-      </c>
-      <c r="N19">
-        <v>84.70063200000001</v>
-      </c>
-      <c r="O19">
-        <v>0.4292152727377173</v>
-      </c>
-      <c r="P19">
-        <v>0.4292152727377173</v>
-      </c>
-      <c r="Q19">
-        <v>12.26364451719734</v>
-      </c>
-      <c r="R19">
-        <v>110.372800654776</v>
-      </c>
-      <c r="S19">
-        <v>0.05672844004514382</v>
-      </c>
-      <c r="T19">
-        <v>0.05672844004514381</v>
+        <v>0.01672645207007207</v>
       </c>
     </row>
   </sheetData>
